--- a/sources/Tuvinian_data.xlsx
+++ b/sources/Tuvinian_data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="577">
   <si>
     <t>language_no</t>
   </si>
@@ -1638,85 +1638,121 @@
     <t>NOM</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>ABL</t>
   </si>
   <si>
     <t>TR</t>
   </si>
   <si>
-    <t>DAT / COM</t>
-  </si>
-  <si>
     <t>DAT</t>
   </si>
   <si>
     <t>ALL1</t>
   </si>
   <si>
-    <t>DAT / ALL1</t>
-  </si>
-  <si>
-    <t>DAT / LOC / ACC</t>
-  </si>
-  <si>
     <t>COM</t>
   </si>
   <si>
-    <t>ACC / post</t>
-  </si>
-  <si>
-    <t>DAT / LOC</t>
-  </si>
-  <si>
     <t>LOC</t>
   </si>
   <si>
-    <t>основа (NOM)</t>
-  </si>
-  <si>
-    <t>ACC / COM</t>
-  </si>
-  <si>
     <t>ACC</t>
   </si>
   <si>
-    <t>DAT / LOC / ALL1</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>ACC / ALL1</t>
-  </si>
-  <si>
-    <t>ACC / DAT</t>
-  </si>
-  <si>
-    <t>DAT / post</t>
-  </si>
-  <si>
-    <t>GENNOM</t>
-  </si>
-  <si>
-    <t>POST</t>
-  </si>
-  <si>
-    <t>LOCNOM</t>
-  </si>
-  <si>
-    <t>osnova</t>
-  </si>
-  <si>
-    <t>ACCosnova</t>
-  </si>
-  <si>
-    <t>DATosnova</t>
-  </si>
-  <si>
-    <t>DATNOM</t>
+    <t>*</t>
+  </si>
+  <si>
+    <t>NOM_ABL</t>
+  </si>
+  <si>
+    <t>NOM(NO.AGR)</t>
+  </si>
+  <si>
+    <t>ACC_NOM(NO.AGR)</t>
+  </si>
+  <si>
+    <t>Изначально в качестве обозначения Y было записано ALL1</t>
+  </si>
+  <si>
+    <t>Изначально в качестве обозначения Y было записано DAT / ALL1</t>
+  </si>
+  <si>
+    <t>Изначально в качестве обозначения Y было записано DAT / LOC / ALL1</t>
+  </si>
+  <si>
+    <t>Изначально в качестве обозначения Y было записано ACC / ALL1</t>
+  </si>
+  <si>
+    <t>NOM_ALL1</t>
+  </si>
+  <si>
+    <t>Изначально в качестве обозначения Y было записано DAT / COM</t>
+  </si>
+  <si>
+    <t>Изначально в качестве обозначения Y было записано ACC / COM</t>
+  </si>
+  <si>
+    <t>NOM_COM</t>
+  </si>
+  <si>
+    <t>NOM_DAT</t>
+  </si>
+  <si>
+    <t>Изначально в качестве обозначения Y было записано ACC / DAT</t>
+  </si>
+  <si>
+    <t>DAT_NOM</t>
+  </si>
+  <si>
+    <t>DAT_NOM(NO.AGR)</t>
+  </si>
+  <si>
+    <t>XY</t>
+  </si>
+  <si>
+    <t>При проверке данных уточнить, есть ли реальные основания считать, что этот класс не совпадает с DAT_NOM (Y был записан как "основа (NOM)", а не просто NOM)</t>
+  </si>
+  <si>
+    <t>GEN_NOM</t>
+  </si>
+  <si>
+    <t>NOM_LOC</t>
+  </si>
+  <si>
+    <t>Изначально Y был записан как "DAT / LOC / ACC"</t>
+  </si>
+  <si>
+    <t>Изначально Y был записан как "DAT / LOC"</t>
+  </si>
+  <si>
+    <t>LOC_NOM</t>
+  </si>
+  <si>
+    <t>NOM_NOM(NO.AGR)</t>
+  </si>
+  <si>
+    <t>При проверке данных уточнить этот класс, изначально было написано, что Y это "основа (NOM)"</t>
+  </si>
+  <si>
+    <t>Изначально Y был записан как "ACC / post"</t>
+  </si>
+  <si>
+    <t>GENdugajynda</t>
+  </si>
+  <si>
+    <t>GENsoonda</t>
+  </si>
+  <si>
+    <t>GENdeesh</t>
+  </si>
+  <si>
+    <t>NOM_GENdugajynda</t>
+  </si>
+  <si>
+    <t>NOM_GENsoonda</t>
+  </si>
+  <si>
+    <t>NOM_GENdeesh</t>
   </si>
 </sst>
 </file>
@@ -2113,9 +2149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2229,9 +2263,11 @@
       <c r="J2" s="11" t="s">
         <v>537</v>
       </c>
-      <c r="K2" s="5"/>
+      <c r="K2" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="L2" s="5" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
@@ -2265,12 +2301,14 @@
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="11" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>538</v>
-      </c>
-      <c r="K3" s="5"/>
+        <v>545</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>545</v>
+      </c>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -2307,11 +2345,13 @@
         <v>537</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>539</v>
-      </c>
-      <c r="K4" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L4" s="5" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -2345,12 +2385,16 @@
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="L5" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -2389,9 +2433,11 @@
       <c r="J6" s="11" t="s">
         <v>537</v>
       </c>
-      <c r="K6" s="5"/>
+      <c r="K6" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="L6" s="5" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -2428,11 +2474,13 @@
         <v>537</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="K7" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L7" s="5" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
@@ -2440,7 +2488,9 @@
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="8"/>
+      <c r="S7" s="8" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="8" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
@@ -2469,11 +2519,13 @@
         <v>537</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="K8" s="5"/>
+        <v>540</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L8" s="5" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
@@ -2507,12 +2559,16 @@
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="L9" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
@@ -2546,12 +2602,16 @@
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="L10" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
@@ -2588,11 +2648,13 @@
         <v>537</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="K11" s="5"/>
+        <v>540</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L11" s="5" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
@@ -2629,11 +2691,13 @@
         <v>537</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="K12" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L12" s="5" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
@@ -2641,7 +2705,9 @@
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
-      <c r="S12" s="5"/>
+      <c r="S12" s="8" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="13" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
@@ -2670,11 +2736,13 @@
         <v>537</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>543</v>
-      </c>
-      <c r="K13" s="5"/>
+        <v>541</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L13" s="5" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -2682,7 +2750,9 @@
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
-      <c r="S13" s="5"/>
+      <c r="S13" s="5" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="14" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
@@ -2708,12 +2778,16 @@
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="J14" s="11"/>
-      <c r="K14" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="L14" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
@@ -2750,11 +2824,13 @@
         <v>537</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>539</v>
-      </c>
-      <c r="K15" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L15" s="5" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
@@ -2788,12 +2864,16 @@
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="J16" s="11"/>
-      <c r="K16" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="L16" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
@@ -2827,12 +2907,16 @@
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="J17" s="11"/>
-      <c r="K17" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="L17" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
@@ -2869,11 +2953,13 @@
         <v>537</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="K18" s="5"/>
+        <v>540</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L18" s="5" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
@@ -2907,12 +2993,16 @@
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="J19" s="11"/>
-      <c r="K19" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="L19" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
@@ -2949,11 +3039,13 @@
         <v>537</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="K20" s="5"/>
+        <v>540</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L20" s="5" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
@@ -2987,12 +3079,16 @@
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="J21" s="11"/>
-      <c r="K21" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="L21" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
@@ -3029,11 +3125,13 @@
         <v>537</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="K22" s="5"/>
+        <v>541</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L22" s="5" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
@@ -3041,7 +3139,9 @@
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
-      <c r="S22" s="8"/>
+      <c r="S22" s="5" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="23" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
@@ -3070,11 +3170,13 @@
         <v>537</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>545</v>
-      </c>
-      <c r="K23" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L23" s="5" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
@@ -3082,7 +3184,9 @@
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
-      <c r="S23" s="5"/>
+      <c r="S23" s="11" t="s">
+        <v>565</v>
+      </c>
     </row>
     <row r="24" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
@@ -3111,11 +3215,13 @@
         <v>537</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>546</v>
-      </c>
-      <c r="K24" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L24" s="5" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
@@ -3152,11 +3258,13 @@
         <v>537</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>546</v>
-      </c>
-      <c r="K25" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L25" s="5" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
@@ -3193,11 +3301,13 @@
         <v>537</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>547</v>
-      </c>
-      <c r="K26" s="5"/>
+        <v>571</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L26" s="5" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
@@ -3205,7 +3315,9 @@
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
-      <c r="S26" s="5"/>
+      <c r="S26" s="5" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="27" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
@@ -3231,12 +3343,16 @@
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="J27" s="11"/>
-      <c r="K27" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="L27" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
@@ -3270,12 +3386,16 @@
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="J28" s="11"/>
-      <c r="K28" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="L28" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
@@ -3309,12 +3429,16 @@
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="J29" s="11"/>
-      <c r="K29" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="L29" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
@@ -3351,11 +3475,13 @@
         <v>537</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>547</v>
-      </c>
-      <c r="K30" s="5"/>
+        <v>571</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L30" s="5" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
@@ -3363,7 +3489,9 @@
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
-      <c r="S30" s="8"/>
+      <c r="S30" s="5" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="31" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
@@ -3392,11 +3520,13 @@
         <v>537</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>539</v>
-      </c>
-      <c r="K31" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L31" s="5" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
@@ -3430,12 +3560,16 @@
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="J32" s="11"/>
-      <c r="K32" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="L32" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
@@ -3472,11 +3606,13 @@
         <v>537</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>546</v>
-      </c>
-      <c r="K33" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L33" s="5" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
@@ -3510,12 +3646,16 @@
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="J34" s="11"/>
-      <c r="K34" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="L34" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
@@ -3552,11 +3692,13 @@
         <v>537</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>548</v>
-      </c>
-      <c r="K35" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L35" s="5" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
@@ -3564,7 +3706,9 @@
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
-      <c r="S35" s="5"/>
+      <c r="S35" s="12" t="s">
+        <v>566</v>
+      </c>
     </row>
     <row r="36" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
@@ -3593,11 +3737,13 @@
         <v>537</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>539</v>
-      </c>
-      <c r="K36" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L36" s="5" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
@@ -3631,12 +3777,16 @@
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="J37" s="11"/>
-      <c r="K37" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="L37" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
@@ -3670,12 +3820,16 @@
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="J38" s="11"/>
-      <c r="K38" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="L38" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
@@ -3709,14 +3863,16 @@
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="11" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="J39" s="11" t="s">
         <v>537</v>
       </c>
-      <c r="K39" s="5"/>
+      <c r="K39" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="L39" s="5" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
@@ -3750,12 +3906,16 @@
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="J40" s="11"/>
-      <c r="K40" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="L40" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
@@ -3789,12 +3949,16 @@
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="J41" s="11"/>
-      <c r="K41" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="L41" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
@@ -3828,12 +3992,16 @@
       </c>
       <c r="H42" s="7"/>
       <c r="I42" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="J42" s="11"/>
-      <c r="K42" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="L42" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
@@ -3870,11 +4038,13 @@
         <v>537</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>550</v>
-      </c>
-      <c r="K43" s="5"/>
+        <v>547</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L43" s="5" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
@@ -3882,7 +4052,9 @@
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="7"/>
-      <c r="S43" s="5"/>
+      <c r="S43" s="5" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="44" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
@@ -3908,12 +4080,16 @@
       </c>
       <c r="H44" s="7"/>
       <c r="I44" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="J44" s="11"/>
-      <c r="K44" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="L44" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
@@ -3947,12 +4123,16 @@
       </c>
       <c r="H45" s="7"/>
       <c r="I45" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="J45" s="11"/>
-      <c r="K45" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="L45" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
@@ -3989,11 +4169,13 @@
         <v>537</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="K46" s="5"/>
+        <v>540</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L46" s="5" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
@@ -4030,11 +4212,13 @@
         <v>537</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="K47" s="5"/>
+        <v>540</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L47" s="5" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
@@ -4071,11 +4255,13 @@
         <v>537</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>551</v>
-      </c>
-      <c r="K48" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L48" s="5" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
@@ -4083,7 +4269,9 @@
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
       <c r="R48" s="7"/>
-      <c r="S48" s="5"/>
+      <c r="S48" s="8" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="49" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
@@ -4111,12 +4299,14 @@
       <c r="I49" s="12" t="s">
         <v>537</v>
       </c>
-      <c r="J49" s="12" t="s">
-        <v>547</v>
-      </c>
-      <c r="K49" s="5"/>
+      <c r="J49" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L49" s="5" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
@@ -4124,7 +4314,9 @@
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
-      <c r="S49" s="5"/>
+      <c r="S49" s="5" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="50" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
@@ -4150,12 +4342,16 @@
       </c>
       <c r="H50" s="7"/>
       <c r="I50" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="J50" s="11"/>
-      <c r="K50" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="L50" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
@@ -4189,12 +4385,16 @@
       </c>
       <c r="H51" s="7"/>
       <c r="I51" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="J51" s="11"/>
-      <c r="K51" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="L51" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
@@ -4228,14 +4428,16 @@
       </c>
       <c r="H52" s="7"/>
       <c r="I52" s="11" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>550</v>
-      </c>
-      <c r="K52" s="5"/>
+        <v>547</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>561</v>
+      </c>
       <c r="L52" s="5" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
@@ -4272,11 +4474,13 @@
         <v>537</v>
       </c>
       <c r="J53" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="K53" s="5"/>
+        <v>540</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L53" s="5" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
@@ -4313,11 +4517,13 @@
         <v>537</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>543</v>
-      </c>
-      <c r="K54" s="5"/>
+        <v>541</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L54" s="5" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
@@ -4325,7 +4531,9 @@
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
       <c r="R54" s="7"/>
-      <c r="S54" s="5"/>
+      <c r="S54" s="5" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="55" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
@@ -4354,11 +4562,13 @@
         <v>537</v>
       </c>
       <c r="J55" s="11" t="s">
-        <v>546</v>
-      </c>
-      <c r="K55" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L55" s="5" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
@@ -4392,12 +4602,16 @@
       </c>
       <c r="H56" s="7"/>
       <c r="I56" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="J56" s="11"/>
-      <c r="K56" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="L56" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
@@ -4431,14 +4645,16 @@
       </c>
       <c r="H57" s="7"/>
       <c r="I57" s="11" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="J57" s="11" t="s">
-        <v>550</v>
-      </c>
-      <c r="K57" s="5"/>
+        <v>547</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>561</v>
+      </c>
       <c r="L57" s="5" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
@@ -4446,7 +4662,9 @@
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
-      <c r="S57" s="5"/>
+      <c r="S57" s="5" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="58" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
@@ -4472,12 +4690,16 @@
       </c>
       <c r="H58" s="7"/>
       <c r="I58" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="J58" s="11"/>
-      <c r="K58" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="L58" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
@@ -4511,14 +4733,16 @@
       </c>
       <c r="H59" s="7"/>
       <c r="I59" s="11" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="J59" s="11" t="s">
         <v>537</v>
       </c>
-      <c r="K59" s="5"/>
+      <c r="K59" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="L59" s="5" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
@@ -4552,14 +4776,16 @@
       </c>
       <c r="H60" s="7"/>
       <c r="I60" s="11" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="J60" s="11" t="s">
         <v>537</v>
       </c>
-      <c r="K60" s="5"/>
+      <c r="K60" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="L60" s="5" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
@@ -4593,12 +4819,16 @@
       </c>
       <c r="H61" s="7"/>
       <c r="I61" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="J61" s="11"/>
-      <c r="K61" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J61" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="K61" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="L61" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
@@ -4632,14 +4862,16 @@
       </c>
       <c r="H62" s="7"/>
       <c r="I62" s="9" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="J62" s="9" t="s">
         <v>537</v>
       </c>
-      <c r="K62" s="5"/>
+      <c r="K62" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="L62" s="5" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
@@ -4676,11 +4908,13 @@
         <v>537</v>
       </c>
       <c r="J63" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="K63" s="5"/>
+        <v>541</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L63" s="5" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
@@ -4688,7 +4922,9 @@
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
       <c r="R63" s="7"/>
-      <c r="S63" s="5"/>
+      <c r="S63" s="5" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="64" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
@@ -4714,12 +4950,16 @@
       </c>
       <c r="H64" s="7"/>
       <c r="I64" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="J64" s="11"/>
-      <c r="K64" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J64" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="K64" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="L64" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
@@ -4756,11 +4996,13 @@
         <v>537</v>
       </c>
       <c r="J65" s="11" t="s">
-        <v>539</v>
-      </c>
-      <c r="K65" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="K65" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L65" s="5" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
@@ -4797,11 +5039,13 @@
         <v>537</v>
       </c>
       <c r="J66" s="11" t="s">
-        <v>539</v>
-      </c>
-      <c r="K66" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="K66" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L66" s="5" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
@@ -4835,12 +5079,16 @@
       </c>
       <c r="H67" s="7"/>
       <c r="I67" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="J67" s="11"/>
-      <c r="K67" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J67" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="L67" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M67" s="5"/>
       <c r="N67" s="5"/>
@@ -4876,12 +5124,14 @@
       <c r="I68" s="12" t="s">
         <v>537</v>
       </c>
-      <c r="J68" s="12" t="s">
-        <v>546</v>
-      </c>
-      <c r="K68" s="5"/>
+      <c r="J68" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L68" s="5" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="M68" s="5"/>
       <c r="N68" s="5"/>
@@ -4915,12 +5165,16 @@
       </c>
       <c r="H69" s="7"/>
       <c r="I69" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="J69" s="11"/>
-      <c r="K69" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J69" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="K69" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="L69" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M69" s="5"/>
       <c r="N69" s="5"/>
@@ -4954,12 +5208,16 @@
       </c>
       <c r="H70" s="7"/>
       <c r="I70" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="J70" s="11"/>
-      <c r="K70" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J70" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="L70" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M70" s="5"/>
       <c r="N70" s="5"/>
@@ -4993,12 +5251,16 @@
       </c>
       <c r="H71" s="7"/>
       <c r="I71" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="J71" s="11"/>
-      <c r="K71" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J71" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="K71" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="L71" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M71" s="5"/>
       <c r="N71" s="5"/>
@@ -5032,12 +5294,16 @@
       </c>
       <c r="H72" s="7"/>
       <c r="I72" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="J72" s="11"/>
-      <c r="K72" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J72" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="K72" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="L72" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M72" s="5"/>
       <c r="N72" s="5"/>
@@ -5071,12 +5337,16 @@
       </c>
       <c r="H73" s="7"/>
       <c r="I73" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="J73" s="11"/>
-      <c r="K73" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J73" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="K73" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="L73" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M73" s="5"/>
       <c r="N73" s="5"/>
@@ -5113,11 +5383,13 @@
         <v>537</v>
       </c>
       <c r="J74" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="K74" s="5"/>
+        <v>540</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L74" s="5" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
@@ -5151,12 +5423,16 @@
       </c>
       <c r="H75" s="7"/>
       <c r="I75" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="J75" s="11"/>
-      <c r="K75" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J75" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="L75" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M75" s="5"/>
       <c r="N75" s="5"/>
@@ -5190,12 +5466,16 @@
       </c>
       <c r="H76" s="7"/>
       <c r="I76" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="J76" s="11"/>
-      <c r="K76" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J76" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="L76" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M76" s="5"/>
       <c r="N76" s="5"/>
@@ -5229,12 +5509,16 @@
       </c>
       <c r="H77" s="7"/>
       <c r="I77" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="J77" s="11"/>
-      <c r="K77" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J77" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="K77" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="L77" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M77" s="5"/>
       <c r="N77" s="5"/>
@@ -5271,11 +5555,13 @@
         <v>537</v>
       </c>
       <c r="J78" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="K78" s="5"/>
+        <v>540</v>
+      </c>
+      <c r="K78" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L78" s="5" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="M78" s="5"/>
       <c r="N78" s="5"/>
@@ -5309,12 +5595,16 @@
       </c>
       <c r="H79" s="7"/>
       <c r="I79" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="J79" s="11"/>
-      <c r="K79" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J79" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="K79" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="L79" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M79" s="5"/>
       <c r="N79" s="5"/>
@@ -5351,11 +5641,13 @@
         <v>537</v>
       </c>
       <c r="J80" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="K80" s="5"/>
+        <v>540</v>
+      </c>
+      <c r="K80" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L80" s="5" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="M80" s="5"/>
       <c r="N80" s="5"/>
@@ -5392,11 +5684,13 @@
         <v>537</v>
       </c>
       <c r="J81" s="11" t="s">
-        <v>546</v>
-      </c>
-      <c r="K81" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="K81" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L81" s="5" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="M81" s="5"/>
       <c r="N81" s="5"/>
@@ -5433,11 +5727,13 @@
         <v>537</v>
       </c>
       <c r="J82" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="K82" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L82" s="5" t="s">
         <v>553</v>
-      </c>
-      <c r="K82" s="5"/>
-      <c r="L82" s="5" t="s">
-        <v>543</v>
       </c>
       <c r="M82" s="5"/>
       <c r="N82" s="5"/>
@@ -5445,7 +5741,9 @@
       <c r="P82" s="7"/>
       <c r="Q82" s="7"/>
       <c r="R82" s="7"/>
-      <c r="S82" s="5"/>
+      <c r="S82" s="5" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="83" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
@@ -5474,11 +5772,13 @@
         <v>537</v>
       </c>
       <c r="J83" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="K83" s="5"/>
+        <v>540</v>
+      </c>
+      <c r="K83" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L83" s="5" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
@@ -5515,11 +5815,13 @@
         <v>537</v>
       </c>
       <c r="J84" s="12" t="s">
-        <v>542</v>
-      </c>
-      <c r="K84" s="5"/>
+        <v>540</v>
+      </c>
+      <c r="K84" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L84" s="5" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="M84" s="5"/>
       <c r="N84" s="5"/>
@@ -5556,11 +5858,13 @@
         <v>537</v>
       </c>
       <c r="J85" s="11" t="s">
-        <v>546</v>
-      </c>
-      <c r="K85" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="K85" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L85" s="5" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="M85" s="5"/>
       <c r="N85" s="5"/>
@@ -5594,12 +5898,16 @@
       </c>
       <c r="H86" s="7"/>
       <c r="I86" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="J86" s="11"/>
-      <c r="K86" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J86" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="K86" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="L86" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M86" s="5"/>
       <c r="N86" s="5"/>
@@ -5633,12 +5941,16 @@
       </c>
       <c r="H87" s="7"/>
       <c r="I87" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="J87" s="11"/>
-      <c r="K87" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J87" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="K87" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="L87" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M87" s="5"/>
       <c r="N87" s="5"/>
@@ -5672,12 +5984,16 @@
       </c>
       <c r="H88" s="7"/>
       <c r="I88" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="J88" s="11"/>
-      <c r="K88" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J88" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="K88" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="L88" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M88" s="5"/>
       <c r="N88" s="5"/>
@@ -5710,13 +6026,17 @@
         <v>369</v>
       </c>
       <c r="H89" s="7"/>
-      <c r="I89" s="12" t="s">
-        <v>540</v>
-      </c>
-      <c r="J89" s="12"/>
-      <c r="K89" s="5"/>
+      <c r="I89" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="J89" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="K89" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="L89" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M89" s="5"/>
       <c r="N89" s="5"/>
@@ -5753,11 +6073,13 @@
         <v>537</v>
       </c>
       <c r="J90" s="12" t="s">
-        <v>554</v>
-      </c>
-      <c r="K90" s="5"/>
+        <v>572</v>
+      </c>
+      <c r="K90" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L90" s="5" t="s">
-        <v>559</v>
+        <v>575</v>
       </c>
       <c r="M90" s="5"/>
       <c r="N90" s="5"/>
@@ -5794,11 +6116,13 @@
         <v>537</v>
       </c>
       <c r="J91" s="11" t="s">
-        <v>539</v>
-      </c>
-      <c r="K91" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="K91" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L91" s="5" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="M91" s="5"/>
       <c r="N91" s="5"/>
@@ -5832,12 +6156,16 @@
       </c>
       <c r="H92" s="7"/>
       <c r="I92" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="J92" s="11"/>
-      <c r="K92" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J92" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="K92" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="L92" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M92" s="5"/>
       <c r="N92" s="5"/>
@@ -5870,13 +6198,17 @@
         <v>385</v>
       </c>
       <c r="H93" s="7"/>
-      <c r="I93" s="12" t="s">
-        <v>540</v>
-      </c>
-      <c r="J93" s="12"/>
-      <c r="K93" s="5"/>
+      <c r="I93" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="J93" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="K93" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="L93" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M93" s="5"/>
       <c r="N93" s="5"/>
@@ -5910,12 +6242,16 @@
       </c>
       <c r="H94" s="7"/>
       <c r="I94" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="J94" s="11"/>
-      <c r="K94" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J94" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="K94" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="L94" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M94" s="5"/>
       <c r="N94" s="5"/>
@@ -5952,11 +6288,13 @@
         <v>537</v>
       </c>
       <c r="J95" s="11" t="s">
-        <v>546</v>
-      </c>
-      <c r="K95" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="K95" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L95" s="5" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="M95" s="5"/>
       <c r="N95" s="5"/>
@@ -5993,11 +6331,13 @@
         <v>537</v>
       </c>
       <c r="J96" s="11" t="s">
-        <v>555</v>
-      </c>
-      <c r="K96" s="5"/>
+        <v>541</v>
+      </c>
+      <c r="K96" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L96" s="5" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="M96" s="5"/>
       <c r="N96" s="5"/>
@@ -6005,7 +6345,9 @@
       <c r="P96" s="7"/>
       <c r="Q96" s="7"/>
       <c r="R96" s="7"/>
-      <c r="S96" s="5"/>
+      <c r="S96" s="5" t="s">
+        <v>552</v>
+      </c>
     </row>
     <row r="97" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
@@ -6031,12 +6373,16 @@
       </c>
       <c r="H97" s="7"/>
       <c r="I97" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="J97" s="11"/>
-      <c r="K97" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J97" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="K97" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="L97" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M97" s="5"/>
       <c r="N97" s="5"/>
@@ -6070,14 +6416,16 @@
       </c>
       <c r="H98" s="7"/>
       <c r="I98" s="11" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="J98" s="11" t="s">
         <v>537</v>
       </c>
-      <c r="K98" s="5"/>
+      <c r="K98" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="L98" s="5" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="M98" s="5"/>
       <c r="N98" s="5"/>
@@ -6114,11 +6462,13 @@
         <v>537</v>
       </c>
       <c r="J99" s="11" t="s">
-        <v>546</v>
-      </c>
-      <c r="K99" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="K99" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L99" s="5" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="M99" s="5"/>
       <c r="N99" s="5"/>
@@ -6155,11 +6505,13 @@
         <v>537</v>
       </c>
       <c r="J100" s="11" t="s">
-        <v>546</v>
-      </c>
-      <c r="K100" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="K100" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L100" s="5" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="M100" s="5"/>
       <c r="N100" s="5"/>
@@ -6196,11 +6548,13 @@
         <v>537</v>
       </c>
       <c r="J101" s="11" t="s">
-        <v>550</v>
-      </c>
-      <c r="K101" s="5"/>
+        <v>547</v>
+      </c>
+      <c r="K101" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L101" s="5" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="M101" s="5"/>
       <c r="N101" s="5"/>
@@ -6208,7 +6562,9 @@
       <c r="P101" s="7"/>
       <c r="Q101" s="7"/>
       <c r="R101" s="7"/>
-      <c r="S101" s="5"/>
+      <c r="S101" s="5" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="102" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
@@ -6237,11 +6593,13 @@
         <v>537</v>
       </c>
       <c r="J102" s="11" t="s">
-        <v>555</v>
-      </c>
-      <c r="K102" s="5"/>
+        <v>541</v>
+      </c>
+      <c r="K102" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L102" s="5" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="M102" s="5"/>
       <c r="N102" s="5"/>
@@ -6249,7 +6607,9 @@
       <c r="P102" s="7"/>
       <c r="Q102" s="7"/>
       <c r="R102" s="7"/>
-      <c r="S102" s="5"/>
+      <c r="S102" s="5" t="s">
+        <v>552</v>
+      </c>
     </row>
     <row r="103" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
@@ -6275,12 +6635,16 @@
       </c>
       <c r="H103" s="7"/>
       <c r="I103" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="J103" s="11"/>
-      <c r="K103" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J103" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="K103" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="L103" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M103" s="5"/>
       <c r="N103" s="5"/>
@@ -6314,12 +6678,16 @@
       </c>
       <c r="H104" s="7"/>
       <c r="I104" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="J104" s="11"/>
-      <c r="K104" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J104" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="K104" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="L104" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M104" s="5"/>
       <c r="N104" s="5"/>
@@ -6356,11 +6724,13 @@
         <v>537</v>
       </c>
       <c r="J105" s="11" t="s">
-        <v>543</v>
-      </c>
-      <c r="K105" s="5"/>
+        <v>541</v>
+      </c>
+      <c r="K105" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L105" s="5" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="M105" s="5"/>
       <c r="N105" s="5"/>
@@ -6368,7 +6738,9 @@
       <c r="P105" s="7"/>
       <c r="Q105" s="7"/>
       <c r="R105" s="7"/>
-      <c r="S105" s="5"/>
+      <c r="S105" s="5" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="106" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
@@ -6394,12 +6766,16 @@
       </c>
       <c r="H106" s="7"/>
       <c r="I106" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="J106" s="11"/>
-      <c r="K106" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J106" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="K106" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="L106" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M106" s="5"/>
       <c r="N106" s="5"/>
@@ -6433,12 +6809,16 @@
       </c>
       <c r="H107" s="7"/>
       <c r="I107" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="J107" s="11"/>
-      <c r="K107" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J107" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="K107" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="L107" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M107" s="5"/>
       <c r="N107" s="5"/>
@@ -6472,12 +6852,16 @@
       </c>
       <c r="H108" s="7"/>
       <c r="I108" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="J108" s="11"/>
-      <c r="K108" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J108" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="K108" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="L108" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M108" s="5"/>
       <c r="N108" s="5"/>
@@ -6511,12 +6895,16 @@
       </c>
       <c r="H109" s="7"/>
       <c r="I109" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="J109" s="11"/>
-      <c r="K109" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J109" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="K109" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="L109" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M109" s="5"/>
       <c r="N109" s="5"/>
@@ -6550,12 +6938,16 @@
       </c>
       <c r="H110" s="7"/>
       <c r="I110" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="J110" s="11"/>
-      <c r="K110" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J110" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="K110" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="L110" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M110" s="5"/>
       <c r="N110" s="5"/>
@@ -6589,12 +6981,16 @@
       </c>
       <c r="H111" s="7"/>
       <c r="I111" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="J111" s="11"/>
-      <c r="K111" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J111" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="K111" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="L111" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M111" s="5"/>
       <c r="N111" s="5"/>
@@ -6631,11 +7027,13 @@
         <v>537</v>
       </c>
       <c r="J112" s="11" t="s">
-        <v>539</v>
-      </c>
-      <c r="K112" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="K112" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L112" s="5" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="M112" s="5"/>
       <c r="N112" s="5"/>
@@ -6672,11 +7070,13 @@
         <v>537</v>
       </c>
       <c r="J113" s="12" t="s">
-        <v>542</v>
-      </c>
-      <c r="K113" s="5"/>
+        <v>540</v>
+      </c>
+      <c r="K113" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L113" s="5" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="M113" s="5"/>
       <c r="N113" s="5"/>
@@ -6713,11 +7113,13 @@
         <v>537</v>
       </c>
       <c r="J114" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="K114" s="5"/>
+        <v>540</v>
+      </c>
+      <c r="K114" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L114" s="5" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="M114" s="5"/>
       <c r="N114" s="5"/>
@@ -6754,11 +7156,13 @@
         <v>537</v>
       </c>
       <c r="J115" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="K115" s="5"/>
+        <v>540</v>
+      </c>
+      <c r="K115" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L115" s="5" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="M115" s="5"/>
       <c r="N115" s="5"/>
@@ -6792,12 +7196,16 @@
       </c>
       <c r="H116" s="7"/>
       <c r="I116" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="J116" s="11"/>
-      <c r="K116" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J116" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="K116" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="L116" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M116" s="5"/>
       <c r="N116" s="5"/>
@@ -6834,11 +7242,13 @@
         <v>537</v>
       </c>
       <c r="J117" s="12" t="s">
-        <v>556</v>
-      </c>
-      <c r="K117" s="5"/>
+        <v>540</v>
+      </c>
+      <c r="K117" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L117" s="5" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="M117" s="5"/>
       <c r="N117" s="5"/>
@@ -6846,7 +7256,9 @@
       <c r="P117" s="7"/>
       <c r="Q117" s="7"/>
       <c r="R117" s="7"/>
-      <c r="S117" s="7"/>
+      <c r="S117" s="7" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="118" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
@@ -6875,11 +7287,13 @@
         <v>537</v>
       </c>
       <c r="J118" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="K118" s="5"/>
+        <v>541</v>
+      </c>
+      <c r="K118" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L118" s="5" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="M118" s="5"/>
       <c r="N118" s="5"/>
@@ -6887,7 +7301,9 @@
       <c r="P118" s="7"/>
       <c r="Q118" s="7"/>
       <c r="R118" s="7"/>
-      <c r="S118" s="7"/>
+      <c r="S118" s="5" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="119" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
@@ -6913,12 +7329,16 @@
       </c>
       <c r="H119" s="7"/>
       <c r="I119" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="J119" s="11"/>
-      <c r="K119" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J119" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="K119" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="L119" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M119" s="5"/>
       <c r="N119" s="5"/>
@@ -6955,11 +7375,13 @@
         <v>537</v>
       </c>
       <c r="J120" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="K120" s="5"/>
+        <v>540</v>
+      </c>
+      <c r="K120" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L120" s="5" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="M120" s="5"/>
       <c r="N120" s="5"/>
@@ -6993,12 +7415,16 @@
       </c>
       <c r="H121" s="7"/>
       <c r="I121" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="J121" s="11"/>
-      <c r="K121" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J121" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="K121" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="L121" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M121" s="5"/>
       <c r="N121" s="5"/>
@@ -7032,12 +7458,16 @@
       </c>
       <c r="H122" s="7"/>
       <c r="I122" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="J122" s="11"/>
-      <c r="K122" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J122" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="K122" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="L122" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M122" s="5"/>
       <c r="N122" s="5"/>
@@ -7074,11 +7504,13 @@
         <v>537</v>
       </c>
       <c r="J123" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="K123" s="5"/>
+        <v>541</v>
+      </c>
+      <c r="K123" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L123" s="5" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="M123" s="5"/>
       <c r="N123" s="5"/>
@@ -7086,7 +7518,9 @@
       <c r="P123" s="7"/>
       <c r="Q123" s="7"/>
       <c r="R123" s="7"/>
-      <c r="S123" s="5"/>
+      <c r="S123" s="5" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="124" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
@@ -7115,11 +7549,13 @@
         <v>537</v>
       </c>
       <c r="J124" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="K124" s="5"/>
+        <v>540</v>
+      </c>
+      <c r="K124" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L124" s="5" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="M124" s="5"/>
       <c r="N124" s="5"/>
@@ -7153,12 +7589,16 @@
       </c>
       <c r="H125" s="7"/>
       <c r="I125" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="J125" s="11"/>
-      <c r="K125" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J125" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="K125" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="L125" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M125" s="5"/>
       <c r="N125" s="5"/>
@@ -7192,12 +7632,16 @@
       </c>
       <c r="H126" s="7"/>
       <c r="I126" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="J126" s="11"/>
-      <c r="K126" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J126" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="K126" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="L126" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M126" s="5"/>
       <c r="N126" s="5"/>
@@ -7231,12 +7675,16 @@
       </c>
       <c r="H127" s="7"/>
       <c r="I127" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="J127" s="11"/>
-      <c r="K127" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J127" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="K127" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="L127" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M127" s="5"/>
       <c r="N127" s="5"/>
@@ -7273,11 +7721,13 @@
         <v>537</v>
       </c>
       <c r="J128" s="11" t="s">
-        <v>557</v>
-      </c>
-      <c r="K128" s="5"/>
+        <v>573</v>
+      </c>
+      <c r="K128" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L128" s="5" t="s">
-        <v>559</v>
+        <v>576</v>
       </c>
       <c r="M128" s="5"/>
       <c r="N128" s="5"/>
@@ -7285,7 +7735,9 @@
       <c r="P128" s="7"/>
       <c r="Q128" s="7"/>
       <c r="R128" s="7"/>
-      <c r="S128" s="5"/>
+      <c r="S128" s="5" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="129" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
@@ -7314,11 +7766,13 @@
         <v>537</v>
       </c>
       <c r="J129" s="11" t="s">
-        <v>539</v>
-      </c>
-      <c r="K129" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="K129" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L129" s="5" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="M129" s="5"/>
       <c r="N129" s="5"/>
@@ -7352,12 +7806,16 @@
       </c>
       <c r="H130" s="7"/>
       <c r="I130" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="J130" s="11"/>
-      <c r="K130" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J130" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="K130" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="L130" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M130" s="5"/>
       <c r="N130" s="5"/>
@@ -7394,11 +7852,13 @@
         <v>537</v>
       </c>
       <c r="J131" s="11" t="s">
-        <v>539</v>
-      </c>
-      <c r="K131" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="K131" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L131" s="5" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="M131" s="5"/>
       <c r="N131" s="5"/>
